--- a/app/config/tables/child_coverage/forms/child_coverage/child_coverage.xlsx
+++ b/app/config/tables/child_coverage/forms/child_coverage/child_coverage.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\child_coverage\forms\child_coverage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="6345" windowWidth="20730" windowHeight="11760" tabRatio="439"/>
+    <workbookView xWindow="1911" yWindow="6349" windowWidth="20736" windowHeight="11756" tabRatio="439"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -885,10 +890,10 @@
     <t>screen.templatePath</t>
   </si>
   <si>
-    <t>../tables/child_coverage/forms/child_coverage/VR_child_coverage.handlebars</t>
-  </si>
-  <si>
     <t>disableSwipeNavigation</t>
+  </si>
+  <si>
+    <t>../config/tables/child_coverage/forms/child_coverage/VR_child_coverage.handlebars</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1170,7 +1175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1381,33 +1386,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="41.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.875" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="73.75" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="35.375" customWidth="1"/>
+    <col min="10" max="10" width="39.75" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="41.375" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="17" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="16" max="17" width="18.375" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
     <col min="21" max="21" width="27" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" customWidth="1"/>
-    <col min="23" max="23" width="43.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.125" customWidth="1"/>
+    <col min="23" max="23" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
         <v>56</v>
@@ -1476,7 +1482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="8" t="s">
@@ -1487,7 +1493,7 @@
         <v>285</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1506,7 +1512,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="D3" s="8"/>
@@ -1535,7 +1541,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1566,7 +1572,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1599,7 +1605,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1630,7 +1636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1663,7 +1669,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1696,7 +1702,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1727,7 +1733,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1760,7 +1766,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1791,7 +1797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1824,7 +1830,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1857,7 +1863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1890,7 +1896,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1921,7 +1927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1954,7 +1960,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1985,7 +1991,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2018,7 +2024,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="14" t="s">
         <v>71</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="18" t="s">
         <v>197</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G21" s="23" t="s">
         <v>13</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="23" t="s">
         <v>13</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G23" s="14" t="s">
         <v>71</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G24" s="18" t="s">
         <v>197</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G25" s="14" t="s">
         <v>71</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G26" s="18" t="s">
         <v>197</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G27" s="23" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="15" t="s">
         <v>71</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="18" t="s">
         <v>197</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="15" t="s">
         <v>71</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="18" t="s">
         <v>197</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G32" s="23" t="s">
         <v>13</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G33" s="23" t="s">
         <v>13</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G34" s="15" t="s">
         <v>71</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="3:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G35" s="18" t="s">
         <v>197</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" s="15" t="s">
         <v>71</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="3:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="18" t="s">
         <v>197</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G38" s="23" t="s">
         <v>13</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="15" t="s">
         <v>71</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="3:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="18" t="s">
         <v>197</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2349,7 +2355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="3:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2368,7 +2374,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2387,7 +2393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -2405,7 +2411,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="12"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2420,7 +2426,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="3:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="12"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2438,7 +2444,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>71</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="3:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G48" s="19" t="s">
         <v>197</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G49" s="23" t="s">
         <v>13</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G50" s="15" t="s">
         <v>71</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G51" s="18" t="s">
         <v>197</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G52" s="15" t="s">
         <v>71</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G53" s="18" t="s">
         <v>197</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G54" s="23" t="s">
         <v>13</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G56" s="11" t="s">
         <v>71</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G57" s="11" t="s">
         <v>71</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G58" s="19" t="s">
         <v>197</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="11" t="s">
         <v>71</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="19" t="s">
         <v>197</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="14" t="s">
         <v>71</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G62" s="18" t="s">
         <v>197</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G63" s="23" t="s">
         <v>13</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G64" s="15" t="s">
         <v>71</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G65" s="18" t="s">
         <v>197</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G66" s="15" t="s">
         <v>71</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G67" s="18" t="s">
         <v>197</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="68" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G68" s="6" t="s">
         <v>13</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G69" s="6" t="s">
         <v>13</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G70" s="15" t="s">
         <v>71</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G71" s="18" t="s">
         <v>197</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G72" s="15" t="s">
         <v>71</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="18" t="s">
         <v>197</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G74" s="23" t="s">
         <v>13</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="15" t="s">
         <v>71</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="18" t="s">
         <v>197</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="15" t="s">
         <v>71</v>
       </c>
@@ -2859,7 +2865,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="18" t="s">
         <v>197</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G79" s="6" t="s">
         <v>13</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G80" s="6" t="s">
         <v>13</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
         <v>71</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G82" s="19" t="s">
         <v>197</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
         <v>71</v>
       </c>
@@ -2939,7 +2945,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G84" s="19" t="s">
         <v>197</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G85" s="6" t="s">
         <v>13</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
         <v>71</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G87" s="19" t="s">
         <v>197</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="88" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
         <v>71</v>
       </c>
@@ -3006,7 +3012,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G89" s="19" t="s">
         <v>197</v>
       </c>
@@ -3020,7 +3026,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G90" s="6" t="s">
         <v>13</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G91" s="6" t="s">
         <v>13</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G92" s="11" t="s">
         <v>71</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G93" s="11" t="s">
         <v>71</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G94" s="6" t="s">
         <v>197</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G95" t="s">
         <v>71</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G96" s="6" t="s">
         <v>197</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
         <v>71</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G98" s="6" t="s">
         <v>197</v>
       </c>
@@ -3135,7 +3141,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="99" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G99" s="6" t="s">
         <v>13</v>
       </c>
@@ -3150,7 +3156,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G100" t="s">
         <v>71</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G101" s="6" t="s">
         <v>197</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
         <v>71</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G103" s="6" t="s">
         <v>197</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G104" s="6" t="s">
         <v>13</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G105" s="6" t="s">
         <v>13</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G106" t="s">
         <v>71</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G107" s="6" t="s">
         <v>197</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
         <v>71</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G109" s="6" t="s">
         <v>197</v>
       </c>
@@ -3281,7 +3287,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G110" s="6" t="s">
         <v>13</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G111" t="s">
         <v>71</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G112" s="6" t="s">
         <v>197</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="113" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
         <v>71</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G114" s="6" t="s">
         <v>197</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="115" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G115" s="6" t="s">
         <v>13</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G116" s="6" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3383,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
         <v>71</v>
       </c>
@@ -3388,7 +3394,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G118" s="6" t="s">
         <v>197</v>
       </c>
@@ -3402,7 +3408,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="119" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G119" t="s">
         <v>71</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G120" s="6" t="s">
         <v>197</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G121" s="6" t="s">
         <v>13</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G122" t="s">
         <v>71</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G123" s="6" t="s">
         <v>197</v>
       </c>
@@ -3468,7 +3474,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G124" t="s">
         <v>71</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G125" s="6" t="s">
         <v>197</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G126" s="6" t="s">
         <v>13</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="7:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G127" s="6" t="s">
         <v>13</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="7:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G128" s="11" t="s">
         <v>71</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="3:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G129" s="19" t="s">
         <v>197</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G130" t="s">
         <v>71</v>
       </c>
@@ -3562,7 +3568,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="3:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G131" s="19" t="s">
         <v>197</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G132" t="s">
         <v>71</v>
       </c>
@@ -3587,7 +3593,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="3:23" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G133" s="19" t="s">
         <v>197</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="3:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G134" s="6" t="s">
         <v>13</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="135" spans="3:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G135" t="s">
         <v>71</v>
       </c>
@@ -3628,7 +3634,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="3:23" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:23" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G136" s="19" t="s">
         <v>197</v>
       </c>
@@ -3642,7 +3648,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="137" spans="3:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G137" t="s">
         <v>71</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="3:23" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:23" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G138" s="19" t="s">
         <v>197</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="139" spans="3:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G139" s="6" t="s">
         <v>13</v>
       </c>
@@ -3683,7 +3689,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="3:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G140" s="6" t="s">
         <v>13</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="3:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G141" t="s">
         <v>71</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="3:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G142" s="19" t="s">
         <v>197</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="143" spans="3:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="11" t="s">
         <v>15</v>
       </c>
@@ -3746,13 +3752,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="127.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="127.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -3760,7 +3766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>74</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>77</v>
       </c>
@@ -3784,7 +3790,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>82</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -3808,7 +3814,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>90</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>93</v>
       </c>
@@ -3832,7 +3838,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>96</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>97</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>100</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>103</v>
       </c>
@@ -3864,7 +3870,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>104</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -3888,7 +3894,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3896,7 +3902,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>116</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>113</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>112</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>121</v>
       </c>
@@ -3928,7 +3934,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>124</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>125</v>
       </c>
@@ -3944,7 +3950,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>144</v>
       </c>
@@ -3952,7 +3958,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>141</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>140</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>137</v>
       </c>
@@ -3976,7 +3982,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>134</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>133</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>130</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>127</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>126</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>151</v>
       </c>
@@ -4024,7 +4030,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -4032,7 +4038,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -4058,14 +4064,14 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4120,7 +4126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4131,7 +4137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4175,8 +4181,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4198,7 +4204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4242,7 +4248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4253,7 +4259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -4286,8 +4292,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -4298,7 +4304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -4309,8 +4315,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>66</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>66</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>66</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>196</v>
       </c>
@@ -4372,14 +4378,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -4390,7 +4396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -4406,7 +4412,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -4414,16 +4420,16 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/app/config/tables/child_coverage/forms/child_coverage/child_coverage.xlsx
+++ b/app/config/tables/child_coverage/forms/child_coverage/child_coverage.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1911" yWindow="6349" windowWidth="20736" windowHeight="11756" tabRatio="439"/>
+    <workbookView xWindow="1911" yWindow="6349" windowWidth="20736" windowHeight="11756" tabRatio="439" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="calculates" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="settings" sheetId="4" r:id="rId4"/>
+    <sheet name="properties" sheetId="5" r:id="rId2"/>
+    <sheet name="calculates" sheetId="2" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="settings" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="297">
   <si>
     <t>type</t>
   </si>
@@ -170,9 +171,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -894,6 +892,33 @@
   </si>
   <si>
     <t>../config/tables/child_coverage/forms/child_coverage/VR_child_coverage.handlebars</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>colOrder</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>["BCG_0_11_HealthCenter","BCG_HC_NR_checkbox1","BCG_0_11_Outreach","BCG_O_NR_checkbox1","BCG_12_23_HealthCenter","BCG_HC_NR_checkbox2","BCG_12_23_Outreach","BCG_O_NR_checkbox2","BCG_OpenedVials","BCG_OV_NR_checkbox","Polio_Newborn_0_11_HealthCenter","PN_HC_NR_checkbox1","Polio_Newborn_0_11_Outreach","PN_O_NR_checkbox1","Polio_Dose1_0_11_HealthCenter","P1_HC_NR_checkbox1","Polio_Dose1_0_11_Outreach","P1_O_NR_checkbox1","Polio_Dose1_12_23_HealthCenter","P1_HC_NR_checkbox2","Polio_Dose1_12_23_Outreach","P1_O_NR_checkbox2","Polio_Dose2_0_11_HealthCenter","P2_HC_NR_checkbox1","Polio_Dose2_0_11_Outreach","P2_O_NR_checkbox1","Polio_Dose2_12_23_HealthCenter","P2_HC_NR_checkbox2","Polio_Dose2_12_23_Outreach","P2_O_NR_checkbox2","Polio_Dose3_0_11_HealthCenter","P3_HC_NR_checkbox1","Polio_Dose3_0_11_Outreach","P3_O_NR_checkbox1","Polio_Dose3_12_23_HealthCenter","P3_HC_NR_checkbox2","Polio_Dose3_12_23_Outreach","P3_O_NR_checkbox2","Polio10_OpenedVials","Polio20_OpenedVials","P20_OV_NR_checkbox","Penta_Dose1_0_11_HealthCenter","Pe1_HC_NR_checkbox1","Penta_Dose1_0_11_Outreach","Pe1_O_NR_checkbox1","Penta_Dose1_12_23_HealthCenter","Pe1_HC_NR_checkbox2","Penta_Dose1_12_23_Outreach","Pe1_O_NR_checkbox2","Penta_Dose2_0_11_HealthCenter","Pe2_HC_NR_checkbox1","Penta_Dose2_0_11_Outreach","Pe2_O_NR_checkbox1","Penta_Dose2_12_23_HealthCenter","Pe2_HC_NR_checkbox2","Penta_Dose2_12_23_Outreach","Pe2_O_NR_checkbox2","Penta_Dose3_0_11_HealthCenter","Pe3_HC_NR_checkbox1","Penta_Dose3_0_11_Outreach","Pe3_O_NR_checkbox1","Penta_Dose3_12_23_HealthCenter","Pe3_HC_NR_checkbox2","Penta_Dose3_12_23_Outreach","Pe3_O_NR_checkbox2","Penta1_OpenedVials","Penta10_OpenedVials","Penta10_OV_NR_checkbox","PCV10_Dose1_0_11_HealthCenter","Pc1_HC_NR_checkbox1","PCV10_Dose1_0_11_Outreach","Pc1_O_NR_checkbox1","PCV10_Dose1_12_23_HealthCenter","Pc1_HC_NR_checkbox2","PCV10_Dose1_12_23_Outreach","Pc1_O_NR_checkbox2","PCV10_Dose2_0_11_HealthCenter","Pc2_HC_NR_checkbox1","PCV10_Dose2_0_11_Outreach","Pc2_O_NR_checkbox1","PCV10_Dose2_12_23_HealthCenter","Pc2_HC_NR_checkbox2","PCV10_Dose2_12_23_Outreach","Pc2_O_NR_checkbox2","PCV10_Dose3_0_11_HealthCenter","Pc3_HC_NR_checkbox1","PCV10_Dose3_0_11_Outreach","Pc3_O_NR_checkbox1","PCV10_Dose3_12_23_HealthCenter","Pc3_HC_NR_checkbox2","PCV10_Dose3_12_23_Outreach","Pc3_O_NR_checkbox2","PCV_OpenedVials","PCV_OV_NR_checkbox","Measles_0_11_HealthCenter","Measles_HC_NR_checkbox1","Measles_0_11_Outreach","Measles_O_NR_checkbox1","Measles_12_23_HealthCenter","Measles_HC_NR_checkbox2","Measles_12_23_Outreach","Measles_O_NR_checkbox2","Measles_OpenedVials","Measles_OV_NR_checkbox"]</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1057,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1078,6 +1103,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1416,43 +1442,43 @@
     <row r="1" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>3</v>
@@ -1476,24 +1502,24 @@
         <v>9</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1523,10 +1549,10 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -1549,11 +1575,11 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="8"/>
@@ -1569,7 +1595,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1580,13 +1606,13 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>198</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="8"/>
@@ -1602,7 +1628,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1613,11 +1639,11 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="8"/>
@@ -1633,7 +1659,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1644,13 +1670,13 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="8"/>
@@ -1666,7 +1692,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1681,10 +1707,10 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1699,7 +1725,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1710,11 +1736,11 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="8"/>
@@ -1730,7 +1756,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1741,13 +1767,13 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="8"/>
@@ -1763,7 +1789,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1774,11 +1800,11 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="8"/>
@@ -1794,7 +1820,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1805,13 +1831,13 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="8"/>
@@ -1827,7 +1853,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1842,10 +1868,10 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1860,7 +1886,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1875,10 +1901,10 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -1893,7 +1919,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1904,11 +1930,11 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="8"/>
@@ -1924,7 +1950,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1935,13 +1961,13 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="8"/>
@@ -1957,7 +1983,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1968,11 +1994,11 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="8"/>
@@ -1988,7 +2014,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1999,13 +2025,13 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="8"/>
@@ -2021,35 +2047,35 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="12"/>
       <c r="W19" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J20" s="12"/>
       <c r="W20" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2058,13 +2084,13 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2073,69 +2099,69 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G23" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="12"/>
       <c r="W23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G24" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J24" s="12"/>
       <c r="W24" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G25" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" s="12"/>
       <c r="W25" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G26" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J26" s="12"/>
       <c r="W26" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2144,69 +2170,69 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W27" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" s="12"/>
       <c r="W28" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J29" s="12"/>
       <c r="W29" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="12"/>
       <c r="W30" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J31" s="12"/>
       <c r="W31" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2215,13 +2241,13 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W32" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2230,69 +2256,69 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W33" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G34" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" s="12"/>
       <c r="W34" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G35" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J35" s="12"/>
       <c r="W35" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J36" s="12"/>
       <c r="W36" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J37" s="12"/>
       <c r="W37" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2301,41 +2327,41 @@
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J39" s="12"/>
       <c r="W39" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J40" s="12"/>
       <c r="W40" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2344,15 +2370,15 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41" s="12"/>
       <c r="W41" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2361,17 +2387,17 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J42" s="12"/>
       <c r="W42" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2384,13 +2410,13 @@
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W43" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2402,13 +2428,13 @@
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W44" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2417,13 +2443,13 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W45" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2432,41 +2458,41 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W47" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G48" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W48" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2475,68 +2501,68 @@
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L49" s="11"/>
       <c r="W49" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G50" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L50" s="11"/>
       <c r="W50" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G51" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G52" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L52" s="11"/>
       <c r="W52" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G53" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W53" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2545,14 +2571,14 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L54" s="11"/>
       <c r="W54" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2561,101 +2587,101 @@
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W55" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G56" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W56" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G57" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W57" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G58" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W58" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W59" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W60" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W61" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G62" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W62" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2664,68 +2690,68 @@
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L63" s="11"/>
       <c r="W63" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G64" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L64" s="11"/>
       <c r="W64" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G65" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W65" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G66" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L66" s="11"/>
       <c r="W66" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G67" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W67" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2734,14 +2760,14 @@
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L68" s="11"/>
       <c r="W68" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2749,65 +2775,65 @@
         <v>13</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G70" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G71" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W71" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G72" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W73" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2816,67 +2842,67 @@
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W74" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L75" s="11"/>
       <c r="W75" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W76" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L77" s="11"/>
       <c r="W77" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W78" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2885,14 +2911,14 @@
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L79" s="11"/>
       <c r="W79" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2900,63 +2926,63 @@
         <v>13</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W80" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W81" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G82" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W82" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W83" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G84" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W84" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2964,66 +2990,66 @@
         <v>13</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L85" s="11"/>
       <c r="W85" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L86" s="11"/>
       <c r="W86" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G87" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W87" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L88" s="11"/>
       <c r="W88" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G89" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W89" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3031,14 +3057,14 @@
         <v>13</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L90" s="11"/>
       <c r="W90" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3046,99 +3072,99 @@
         <v>13</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W91" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G92" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W92" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G93" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W93" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G94" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W94" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W95" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G96" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W96" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W97" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G98" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W98" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3146,66 +3172,66 @@
         <v>13</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L99" s="11"/>
       <c r="W99" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L100" s="11"/>
       <c r="W100" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G101" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W101" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I102" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L102" s="11"/>
       <c r="W102" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G103" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W103" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3213,14 +3239,14 @@
         <v>13</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L104" s="11"/>
       <c r="W104" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3228,63 +3254,63 @@
         <v>13</v>
       </c>
       <c r="I105" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W105" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G107" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W107" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G109" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I109" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W109" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3292,66 +3318,66 @@
         <v>13</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L110" s="11"/>
       <c r="W110" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L111" s="11"/>
       <c r="W111" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G112" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I112" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W112" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L113" s="11"/>
       <c r="W113" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G114" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W114" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3359,14 +3385,14 @@
         <v>13</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L115" s="11"/>
       <c r="W115" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3374,63 +3400,63 @@
         <v>13</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W116" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W117" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G118" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I118" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W118" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W119" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G120" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I120" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W120" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3438,66 +3464,66 @@
         <v>13</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L121" s="11"/>
       <c r="W121" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L122" s="11"/>
       <c r="W122" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G123" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I123" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W123" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I124" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L124" s="11"/>
       <c r="W124" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G125" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W125" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3505,14 +3531,14 @@
         <v>13</v>
       </c>
       <c r="I126" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L126" s="11"/>
       <c r="W126" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3520,91 +3546,91 @@
         <v>13</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W127" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G128" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I128" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W128" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G129" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I129" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W129" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W130" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G131" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W131" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G132" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W132" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G133" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W133" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -3612,66 +3638,66 @@
         <v>13</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J134" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L134" s="11"/>
       <c r="W134" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G135" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L135" s="11"/>
       <c r="W135" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="3:23" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G136" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W136" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L137" s="11"/>
       <c r="W137" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="3:23" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G138" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W138" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -3679,14 +3705,14 @@
         <v>13</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J139" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L139" s="11"/>
       <c r="W139" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -3694,38 +3720,38 @@
         <v>13</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J140" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W140" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I141" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W141" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G142" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W142" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="143" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -3745,6 +3771,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
@@ -3760,7 +3838,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -3768,282 +3846,282 @@
     </row>
     <row r="2" spans="1:2" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4056,7 +4134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -4073,13 +4151,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -4318,46 +4396,46 @@
     <row r="25" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="C26" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4370,12 +4448,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4387,26 +4465,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>294</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
@@ -4414,15 +4492,15 @@
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>

--- a/app/config/tables/child_coverage/forms/child_coverage/child_coverage.xlsx
+++ b/app/config/tables/child_coverage/forms/child_coverage/child_coverage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1911" yWindow="6349" windowWidth="20736" windowHeight="11756" tabRatio="439" activeTab="1"/>
+    <workbookView xWindow="1911" yWindow="6349" windowWidth="20736" windowHeight="11756" tabRatio="439"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="298">
   <si>
     <t>type</t>
   </si>
@@ -54,9 +54,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -198,21 +195,9 @@
     <t>branch_label</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.audio</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
     <t>screen.screen_type</t>
   </si>
   <si>
@@ -919,12 +904,30 @@
   </si>
   <si>
     <t>array</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.audio</t>
+  </si>
+  <si>
+    <t>display.prompt.image</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1199,6 +1202,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1234,6 +1254,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1412,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W143"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1427,13 +1464,14 @@
     <col min="8" max="8" width="10.375" customWidth="1"/>
     <col min="9" max="9" width="35.375" customWidth="1"/>
     <col min="10" max="10" width="39.75" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="41.375" customWidth="1"/>
     <col min="13" max="13" width="20.375" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
     <col min="15" max="15" width="15.875" customWidth="1"/>
     <col min="16" max="17" width="18.375" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="20" max="20" width="30.75" customWidth="1"/>
     <col min="21" max="21" width="27" customWidth="1"/>
     <col min="22" max="22" width="15.125" customWidth="1"/>
     <col min="23" max="23" width="43.875" customWidth="1"/>
@@ -1442,43 +1480,43 @@
     <row r="1" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>3</v>
@@ -1496,30 +1534,30 @@
         <v>7</v>
       </c>
       <c r="T1" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="V1" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1545,14 +1583,14 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -1575,11 +1613,11 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="8"/>
@@ -1595,7 +1633,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1606,13 +1644,13 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="8"/>
@@ -1628,7 +1666,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1639,11 +1677,11 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="8"/>
@@ -1659,7 +1697,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1670,13 +1708,13 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="8"/>
@@ -1692,7 +1730,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1703,14 +1741,14 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1725,7 +1763,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1736,11 +1774,11 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="8"/>
@@ -1756,7 +1794,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,13 +1805,13 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="8"/>
@@ -1789,7 +1827,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1800,11 +1838,11 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="8"/>
@@ -1820,7 +1858,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1831,13 +1869,13 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H12" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="8"/>
@@ -1853,7 +1891,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1864,14 +1902,14 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1886,7 +1924,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1897,14 +1935,14 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -1919,7 +1957,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1930,11 +1968,11 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="8"/>
@@ -1950,7 +1988,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1961,13 +1999,13 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>201</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="8"/>
@@ -1983,7 +2021,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1994,11 +2032,11 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="8"/>
@@ -2014,7 +2052,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2025,13 +2063,13 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="8"/>
@@ -2047,321 +2085,321 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J19" s="12"/>
       <c r="W19" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J20" s="12"/>
       <c r="W20" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G21" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G23" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J23" s="12"/>
       <c r="W23" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G24" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J24" s="12"/>
       <c r="W24" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G25" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J25" s="12"/>
       <c r="W25" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G26" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J26" s="12"/>
       <c r="W26" s="18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G27" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="W27" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J28" s="12"/>
       <c r="W28" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J29" s="12"/>
       <c r="W29" s="18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J30" s="12"/>
       <c r="W30" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J31" s="12"/>
       <c r="W31" s="18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G32" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W32" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G33" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="W33" s="15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G34" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J34" s="12"/>
       <c r="W34" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G35" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J35" s="12"/>
       <c r="W35" s="18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J36" s="12"/>
       <c r="W36" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J37" s="12"/>
       <c r="W37" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G38" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J39" s="12"/>
       <c r="W39" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J40" s="12"/>
       <c r="W40" s="18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2370,15 +2408,15 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J41" s="12"/>
       <c r="W41" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2387,17 +2425,17 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J42" s="12"/>
       <c r="W42" s="18" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2406,17 +2444,17 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="W43" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2424,17 +2462,17 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="W44" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2443,13 +2481,13 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="W45" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2458,1305 +2496,1305 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="W47" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G48" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="W48" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G49" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L49" s="11"/>
       <c r="W49" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G50" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L50" s="11"/>
       <c r="W50" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G51" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G52" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L52" s="11"/>
       <c r="W52" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G53" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="W53" s="18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G54" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L54" s="11"/>
       <c r="W54" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G55" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="W55" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G56" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="W56" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G57" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="W57" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G58" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="W58" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="W59" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="W60" s="18" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="W61" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G62" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="W62" s="18" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G63" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L63" s="11"/>
       <c r="W63" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G64" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L64" s="11"/>
       <c r="W64" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G65" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="W65" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G66" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L66" s="11"/>
       <c r="W66" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G67" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="W67" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G68" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L68" s="11"/>
       <c r="W68" s="15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G69" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G70" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G71" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="W71" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G72" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="W73" s="18" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G74" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="W74" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L75" s="11"/>
       <c r="W75" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="W76" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L77" s="11"/>
       <c r="W77" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="W78" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G79" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L79" s="11"/>
       <c r="W79" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G80" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="W80" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="W81" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G82" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="W82" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="W83" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G84" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="W84" s="18" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G85" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L85" s="11"/>
       <c r="W85" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L86" s="11"/>
       <c r="W86" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G87" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="W87" s="18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L88" s="11"/>
       <c r="W88" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G89" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="W89" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G90" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L90" s="11"/>
       <c r="W90" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G91" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="W91" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G92" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="W92" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G93" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W93" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G94" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="W94" s="18" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G95" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="W95" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G96" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="W96" s="20" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="W97" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G98" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="W98" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G99" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L99" s="11"/>
       <c r="W99" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G100" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L100" s="11"/>
       <c r="W100" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G101" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="W101" s="20" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I102" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L102" s="11"/>
       <c r="W102" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G103" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="W103" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G104" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L104" s="11"/>
       <c r="W104" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G105" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I105" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="W105" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G106" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G107" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="W107" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G109" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I109" s="20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="W109" s="20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G110" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L110" s="11"/>
       <c r="W110" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G111" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L111" s="11"/>
       <c r="W111" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G112" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I112" s="20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="W112" s="20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L113" s="11"/>
       <c r="W113" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G114" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="W114" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G115" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J115" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L115" s="11"/>
       <c r="W115" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G116" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J116" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="W116" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="W117" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G118" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I118" s="20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="W118" s="20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G119" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="W119" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G120" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I120" s="20" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="W120" s="20" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G121" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J121" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L121" s="11"/>
       <c r="W121" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G122" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L122" s="11"/>
       <c r="W122" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G123" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I123" s="20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="W123" s="20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G124" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I124" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L124" s="11"/>
       <c r="W124" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G125" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="W125" s="20" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G126" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I126" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J126" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L126" s="11"/>
       <c r="W126" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G127" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J127" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="W127" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G128" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I128" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="W128" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G129" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I129" s="18" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="W129" s="18" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G130" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I130" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="W130" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G131" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="W131" s="19" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G132" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I132" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="W132" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G133" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="W133" s="19" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G134" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J134" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L134" s="11"/>
       <c r="W134" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G135" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L135" s="11"/>
       <c r="W135" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="3:23" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G136" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="W136" s="19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="137" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G137" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L137" s="11"/>
       <c r="W137" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="3:23" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G138" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="W138" s="19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G139" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J139" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L139" s="11"/>
       <c r="W139" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G140" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J140" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="W140" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G141" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I141" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="W141" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G142" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="W142" s="19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3774,7 +3812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3785,36 +3823,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>296</v>
-      </c>
       <c r="E2" s="27" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3838,290 +3876,290 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4151,291 +4189,291 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4491,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4465,26 +4503,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
@@ -4492,15 +4530,15 @@
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>

--- a/app/config/tables/child_coverage/forms/child_coverage/child_coverage.xlsx
+++ b/app/config/tables/child_coverage/forms/child_coverage/child_coverage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1911" yWindow="6349" windowWidth="20736" windowHeight="11756" tabRatio="439"/>
+    <workbookView xWindow="1911" yWindow="6349" windowWidth="20736" windowHeight="11756" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="297">
   <si>
     <t>type</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>form_version</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -1449,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -1480,43 +1477,43 @@
     <row r="1" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>294</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>3</v>
@@ -1534,30 +1531,30 @@
         <v>7</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1587,10 +1584,10 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -1613,11 +1610,11 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="8"/>
@@ -1633,7 +1630,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1644,13 +1641,13 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="8"/>
@@ -1666,7 +1663,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1677,11 +1674,11 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="8"/>
@@ -1697,7 +1694,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1708,13 +1705,13 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="8"/>
@@ -1730,7 +1727,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1745,10 +1742,10 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1763,7 +1760,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1774,11 +1771,11 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="8"/>
@@ -1794,7 +1791,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1805,13 +1802,13 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="8"/>
@@ -1827,7 +1824,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1838,11 +1835,11 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="8"/>
@@ -1858,7 +1855,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1869,13 +1866,13 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="8"/>
@@ -1891,7 +1888,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1906,10 +1903,10 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1924,7 +1921,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1939,10 +1936,10 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -1957,7 +1954,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1968,11 +1965,11 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="8"/>
@@ -1988,7 +1985,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1999,13 +1996,13 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="8"/>
@@ -2021,7 +2018,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2032,11 +2029,11 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="8"/>
@@ -2052,7 +2049,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2063,13 +2060,13 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="8"/>
@@ -2085,35 +2082,35 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" s="12"/>
       <c r="W19" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J20" s="12"/>
       <c r="W20" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2122,13 +2119,13 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2137,69 +2134,69 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G23" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J23" s="12"/>
       <c r="W23" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G24" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J24" s="12"/>
       <c r="W24" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G25" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25" s="12"/>
       <c r="W25" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G26" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J26" s="12"/>
       <c r="W26" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,69 +2205,69 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W27" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J28" s="12"/>
       <c r="W28" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J29" s="12"/>
       <c r="W29" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" s="12"/>
       <c r="W30" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J31" s="12"/>
       <c r="W31" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2279,13 +2276,13 @@
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W32" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2294,69 +2291,69 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W33" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G34" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J34" s="12"/>
       <c r="W34" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G35" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J35" s="12"/>
       <c r="W35" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J36" s="12"/>
       <c r="W36" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J37" s="12"/>
       <c r="W37" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2365,41 +2362,41 @@
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J39" s="12"/>
       <c r="W39" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J40" s="12"/>
       <c r="W40" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2408,15 +2405,15 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J41" s="12"/>
       <c r="W41" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,17 +2422,17 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J42" s="12"/>
       <c r="W42" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2448,13 +2445,13 @@
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W43" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2466,13 +2463,13 @@
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W44" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2481,13 +2478,13 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W45" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2496,41 +2493,41 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W47" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G48" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W48" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2539,68 +2536,68 @@
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L49" s="11"/>
       <c r="W49" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G50" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L50" s="11"/>
       <c r="W50" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G51" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G52" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L52" s="11"/>
       <c r="W52" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G53" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W53" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2609,14 +2606,14 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L54" s="11"/>
       <c r="W54" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2625,101 +2622,101 @@
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W55" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G56" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W56" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G57" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W57" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G58" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W58" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G59" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W59" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G60" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W60" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G61" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W61" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G62" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W62" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2728,68 +2725,68 @@
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L63" s="11"/>
       <c r="W63" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G64" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L64" s="11"/>
       <c r="W64" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G65" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W65" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G66" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L66" s="11"/>
       <c r="W66" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G67" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W67" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2798,14 +2795,14 @@
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L68" s="11"/>
       <c r="W68" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2813,65 +2810,65 @@
         <v>12</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G70" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W70" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G71" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W71" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G72" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W72" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W73" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2880,67 +2877,67 @@
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W74" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L75" s="11"/>
       <c r="W75" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W76" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L77" s="11"/>
       <c r="W77" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W78" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2949,14 +2946,14 @@
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L79" s="11"/>
       <c r="W79" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -2964,63 +2961,63 @@
         <v>12</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W80" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W81" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G82" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H82" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W82" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W83" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G84" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W84" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3028,66 +3025,66 @@
         <v>12</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L85" s="11"/>
       <c r="W85" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L86" s="11"/>
       <c r="W86" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G87" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W87" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L88" s="11"/>
       <c r="W88" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G89" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W89" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3095,14 +3092,14 @@
         <v>12</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L90" s="11"/>
       <c r="W90" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3110,99 +3107,99 @@
         <v>12</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W91" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G92" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W92" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G93" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W93" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G94" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W94" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W95" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G96" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W96" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W97" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G98" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W98" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3210,66 +3207,66 @@
         <v>12</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L99" s="11"/>
       <c r="W99" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L100" s="11"/>
       <c r="W100" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G101" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W101" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I102" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L102" s="11"/>
       <c r="W102" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G103" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W103" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3277,14 +3274,14 @@
         <v>12</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L104" s="11"/>
       <c r="W104" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3292,63 +3289,63 @@
         <v>12</v>
       </c>
       <c r="I105" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W105" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G107" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W107" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G109" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I109" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W109" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3356,66 +3353,66 @@
         <v>12</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L110" s="11"/>
       <c r="W110" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L111" s="11"/>
       <c r="W111" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G112" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I112" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W112" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L113" s="11"/>
       <c r="W113" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G114" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W114" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3423,14 +3420,14 @@
         <v>12</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J115" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L115" s="11"/>
       <c r="W115" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3438,63 +3435,63 @@
         <v>12</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J116" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W116" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W117" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G118" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I118" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W118" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W119" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G120" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I120" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W120" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3502,66 +3499,66 @@
         <v>12</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L121" s="11"/>
       <c r="W121" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L122" s="11"/>
       <c r="W122" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G123" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I123" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W123" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I124" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L124" s="11"/>
       <c r="W124" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G125" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W125" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3569,14 +3566,14 @@
         <v>12</v>
       </c>
       <c r="I126" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J126" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L126" s="11"/>
       <c r="W126" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="7:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -3584,91 +3581,91 @@
         <v>12</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J127" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W127" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="7:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G128" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I128" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W128" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G129" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I129" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W129" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="130" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W130" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G131" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W131" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W132" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G133" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W133" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,66 +3673,66 @@
         <v>12</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J134" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L134" s="11"/>
       <c r="W134" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L135" s="11"/>
       <c r="W135" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="3:23" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G136" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W136" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="137" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G137" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L137" s="11"/>
       <c r="W137" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="3:23" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G138" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W138" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -3743,14 +3740,14 @@
         <v>12</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J139" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L139" s="11"/>
       <c r="W139" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -3758,38 +3755,38 @@
         <v>12</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J140" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W140" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G141" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W141" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G142" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W142" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="3:23" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -3823,13 +3820,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>284</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>285</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>0</v>
@@ -3840,19 +3837,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>288</v>
-      </c>
       <c r="D2" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -3884,282 +3881,282 @@
     </row>
     <row r="2" spans="1:2" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="11" customFormat="1" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4176,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4189,13 +4186,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -4434,46 +4431,46 @@
     <row r="25" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="C26" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4503,21 +4500,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
@@ -4530,15 +4527,15 @@
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
